--- a/Config/Excel/Server/SceneConfig.xlsx
+++ b/Config/Excel/Server/SceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="11820"/>
+    <workbookView windowWidth="29868" windowHeight="12900"/>
   </bookViews>
   <sheets>
     <sheet name="SceneConfig" sheetId="8" r:id="rId1"/>
@@ -461,7 +461,7 @@
     <t>Gate</t>
   </si>
   <si>
-    <t>KCP</t>
+    <t>WebSocket</t>
   </si>
   <si>
     <t>Gate通讯</t>
@@ -510,7 +510,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -533,13 +533,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -699,6 +692,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -708,16 +707,10 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Microsoft YaHei UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Microsoft Tai Le"/>
       <charset val="134"/>
     </font>
     <font>
@@ -730,13 +723,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -744,11 +731,17 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Microsoft Tai Le"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -812,12 +805,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,148 +1086,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1263,16 +1250,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1756,8 +1743,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="6"/>
